--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4116162.140794851</v>
+        <v>4113590.186276946</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>201.1481357371471</v>
+        <v>193.4171325760649</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>117.611794457288</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>341.2578399936063</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>65.60109857576352</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>215.6927484323853</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>130.1208074460241</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696654</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74133133758761</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.8658378359718</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.762978774858</v>
+        <v>2270.572072876962</v>
       </c>
       <c r="U2" t="n">
-        <v>2262.762978774858</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V2" t="n">
-        <v>1931.700091431288</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W2" t="n">
-        <v>1578.931436161173</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1205.465677900094</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1205.465677900094</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,7 +4568,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2523.320609167617</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2170.551953897502</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2170.551953897502</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1272.344242153658</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>903.3817252132462</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>545.1160266064958</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>545.1160266064958</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>134.1301218168882</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>120.2067177554791</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>120.2067177554791</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153658</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718132</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.2213777565</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718132</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908939</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-8.467341030740874e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>35.40333084624476</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396026</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.5054897610402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="E2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900065</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.493968250307481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670429</v>
+        <v>5067.59260167043</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670467</v>
+        <v>5067.59260167043</v>
       </c>
       <c r="G4" t="n">
+        <v>5067.592601670445</v>
+      </c>
+      <c r="H4" t="n">
         <v>5067.59260167046</v>
       </c>
-      <c r="H4" t="n">
-        <v>5067.592601670449</v>
-      </c>
       <c r="I4" t="n">
+        <v>5067.59260167044</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5067.592601670456</v>
+      </c>
+      <c r="K4" t="n">
         <v>5067.592601670443</v>
       </c>
-      <c r="J4" t="n">
-        <v>5067.592601670407</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670438</v>
-      </c>
       <c r="L4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670414</v>
+        <v>5067.592601670442</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670408</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140237</v>
+        <v>-52849.6933414024</v>
       </c>
       <c r="C6" t="n">
+        <v>537118.1858731421</v>
+      </c>
+      <c r="D6" t="n">
         <v>537118.1858731423</v>
       </c>
-      <c r="D6" t="n">
-        <v>537118.1858731421</v>
-      </c>
       <c r="E6" t="n">
-        <v>-243416.3004932803</v>
+        <v>-243451.0384187164</v>
       </c>
       <c r="F6" t="n">
-        <v>700956.477264429</v>
+        <v>700921.7393389934</v>
       </c>
       <c r="G6" t="n">
-        <v>700956.4772644287</v>
+        <v>700921.739338993</v>
       </c>
       <c r="H6" t="n">
-        <v>700956.4772644285</v>
+        <v>700921.739338993</v>
       </c>
       <c r="I6" t="n">
-        <v>700956.4772644289</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="J6" t="n">
-        <v>524533.2580718356</v>
+        <v>524498.5201464003</v>
       </c>
       <c r="K6" t="n">
-        <v>700956.4772644285</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="L6" t="n">
-        <v>700956.4772644285</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="M6" t="n">
-        <v>576747.9665563703</v>
+        <v>576713.2286309344</v>
       </c>
       <c r="N6" t="n">
-        <v>700956.477264429</v>
+        <v>700921.7393389927</v>
       </c>
       <c r="O6" t="n">
-        <v>700956.4772644286</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="P6" t="n">
-        <v>700956.4772644287</v>
+        <v>700921.7393389932</v>
       </c>
     </row>
   </sheetData>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>15.30018462051069</v>
+        <v>23.03118778159291</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>10.81525101172488</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>210.1404640128469</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>28.47326068486274</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>62.69861478456102</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>86.33021766909773</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>154.0383522460838</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.19778782019339e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>469.5567819573399</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>514.8598010172136</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>437.853104691376</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172136</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353216</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>376.3054212373395</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770457</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373395</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
